--- a/HW3_Excel1/HW3_114306084.xlsx
+++ b/HW3_Excel1/HW3_114306084.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3646FF1B-32FD-467C-82C7-E3CFD3BC6EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A87B906-EB18-483A-B818-489B53A312B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8436" yWindow="1356" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -320,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,6 +335,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +482,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -945,12 +951,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2050,16 +2053,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>602074</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>37630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1303020</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>460963</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28222</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2089,13 +2092,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>404518</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>75258</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2435,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9961FA0D-67BD-4FEB-B956-7740A55D5973}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="58" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2515,22 +2518,23 @@
       <c r="I2" s="1">
         <v>89</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J3" si="1" xml:space="preserve"> H2 * 0.5 + I2 * 0.5</f>
+      <c r="J2" s="5">
+        <f>I2*0.5+H2*0.5</f>
         <v>91.7</v>
       </c>
-      <c r="K2" t="str" cm="1">
+      <c r="K2" s="6" t="str" cm="1">
         <f t="array" ref="K2">_xlfn.IFS(J2&gt;=90,"Ａ",J2&gt;=80,"Ｂ",J2&gt;=70,"Ｃ",J2&gt;=60,"Ｄ",J2&lt;60,"Ｆ")</f>
         <v>Ａ</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" s="6" t="str">
         <f>IF(J2&gt;=60,"ｐａｓｓ","ｆａｉｌ")</f>
         <v>ｐａｓｓ</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="6">
         <f>COUNTIF(L2:L15,"ｐａｓｓ")</f>
         <v>12</v>
       </c>
@@ -2564,22 +2568,23 @@
       <c r="I3" s="1">
         <v>94</v>
       </c>
-      <c r="J3">
-        <f t="shared" si="1"/>
+      <c r="J3" s="5">
+        <f t="shared" ref="J2:J3" si="1" xml:space="preserve"> H3 * 0.5 + I3 * 0.5</f>
         <v>90</v>
       </c>
-      <c r="K3" t="str" cm="1">
+      <c r="K3" s="6" t="str" cm="1">
         <f t="array" ref="K3">_xlfn.IFS(J3&gt;=90,"Ａ",J3&gt;=80,"Ｂ",J3&gt;=70,"Ｃ",J3&gt;=60,"Ｄ",J3&lt;60,"Ｆ")</f>
         <v>Ａ</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3" s="6" t="str">
         <f t="shared" ref="L3:L15" si="2">IF(J3&gt;=60,"ｐａｓｓ","ｆａｉｌ")</f>
         <v>ｐａｓｓ</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="6">
         <f>COUNTIF(L2:L15,"ｆａｉｌ")</f>
         <v>2</v>
       </c>
@@ -2613,18 +2618,21 @@
       <c r="I4" s="1">
         <v>80</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <f xml:space="preserve"> H4 * 0.5 + I4 * 0.5</f>
         <v>81.2</v>
       </c>
-      <c r="K4" t="str" cm="1">
+      <c r="K4" s="6" t="str" cm="1">
         <f t="array" ref="K4">_xlfn.IFS(J4&gt;=90,"Ａ",J4&gt;=80,"Ｂ",J4&gt;=70,"Ｃ",J4&gt;=60,"Ｄ",J4&lt;60,"Ｆ")</f>
         <v>Ｂ</v>
       </c>
-      <c r="L4" t="str">
+      <c r="L4" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｐａｓｓ</v>
       </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
@@ -2655,18 +2663,21 @@
       <c r="I5" s="1">
         <v>80</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <f>H5 * 0.5 + I5 * 0.5</f>
         <v>80.8</v>
       </c>
-      <c r="K5" t="str" cm="1">
+      <c r="K5" s="6" t="str" cm="1">
         <f t="array" ref="K5">_xlfn.IFS(J5&gt;=90,"Ａ",J5&gt;=80,"Ｂ",J5&gt;=70,"Ｃ",J5&gt;=60,"Ｄ",J5&lt;60,"Ｆ")</f>
         <v>Ｂ</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｐａｓｓ</v>
       </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
@@ -2697,18 +2708,21 @@
       <c r="I6" s="1">
         <v>88</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <f t="shared" ref="J6:J15" si="3">H6*0.5+I6*0.5</f>
         <v>84.7</v>
       </c>
-      <c r="K6" t="str" cm="1">
+      <c r="K6" s="6" t="str" cm="1">
         <f t="array" ref="K6">_xlfn.IFS(J6&gt;=90,"Ａ",J6&gt;=80,"Ｂ",J6&gt;=70,"Ｃ",J6&gt;=60,"Ｄ",J6&lt;60,"Ｆ")</f>
         <v>Ｂ</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｐａｓｓ</v>
       </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
@@ -2739,18 +2753,21 @@
       <c r="I7" s="1">
         <v>81</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
         <v>80.8</v>
       </c>
-      <c r="K7" t="str" cm="1">
+      <c r="K7" s="6" t="str" cm="1">
         <f t="array" ref="K7">_xlfn.IFS(J7&gt;=90,"Ａ",J7&gt;=80,"Ｂ",J7&gt;=70,"Ｃ",J7&gt;=60,"Ｄ",J7&lt;60,"Ｆ")</f>
         <v>Ｂ</v>
       </c>
-      <c r="L7" t="str">
+      <c r="L7" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｐａｓｓ</v>
       </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
@@ -2781,18 +2798,21 @@
       <c r="I8" s="1">
         <v>77</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
         <v>77.900000000000006</v>
       </c>
-      <c r="K8" t="str" cm="1">
+      <c r="K8" s="6" t="str" cm="1">
         <f t="array" ref="K8">_xlfn.IFS(J8&gt;=90,"Ａ",J8&gt;=80,"Ｂ",J8&gt;=70,"Ｃ",J8&gt;=60,"Ｄ",J8&lt;60,"Ｆ")</f>
         <v>Ｃ</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｐａｓｓ</v>
       </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
@@ -2823,18 +2843,21 @@
       <c r="I9" s="1">
         <v>73</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <f t="shared" si="3"/>
         <v>74.2</v>
       </c>
-      <c r="K9" t="str" cm="1">
+      <c r="K9" s="6" t="str" cm="1">
         <f t="array" ref="K9">_xlfn.IFS(J9&gt;=90,"Ａ",J9&gt;=80,"Ｂ",J9&gt;=70,"Ｃ",J9&gt;=60,"Ｄ",J9&lt;60,"Ｆ")</f>
         <v>Ｃ</v>
       </c>
-      <c r="L9" t="str">
+      <c r="L9" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｐａｓｓ</v>
       </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
@@ -2865,18 +2888,21 @@
       <c r="I10" s="1">
         <v>77</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <f t="shared" si="3"/>
         <v>75.2</v>
       </c>
-      <c r="K10" t="str" cm="1">
+      <c r="K10" s="6" t="str" cm="1">
         <f t="array" ref="K10">_xlfn.IFS(J10&gt;=90,"Ａ",J10&gt;=80,"Ｂ",J10&gt;=70,"Ｃ",J10&gt;=60,"Ｄ",J10&lt;60,"Ｆ")</f>
         <v>Ｃ</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｐａｓｓ</v>
       </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
@@ -2907,18 +2933,21 @@
       <c r="I11" s="1">
         <v>82</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <f t="shared" si="3"/>
         <v>77.599999999999994</v>
       </c>
-      <c r="K11" t="str" cm="1">
+      <c r="K11" s="6" t="str" cm="1">
         <f t="array" ref="K11">_xlfn.IFS(J11&gt;=90,"Ａ",J11&gt;=80,"Ｂ",J11&gt;=70,"Ｃ",J11&gt;=60,"Ｄ",J11&lt;60,"Ｆ")</f>
         <v>Ｃ</v>
       </c>
-      <c r="L11" t="str">
+      <c r="L11" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｐａｓｓ</v>
       </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
@@ -2949,18 +2978,21 @@
       <c r="I12" s="1">
         <v>88</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <f t="shared" si="3"/>
         <v>80.599999999999994</v>
       </c>
-      <c r="K12" t="str" cm="1">
+      <c r="K12" s="6" t="str" cm="1">
         <f t="array" ref="K12">_xlfn.IFS(J12&gt;=90,"Ａ",J12&gt;=80,"Ｂ",J12&gt;=70,"Ｃ",J12&gt;=60,"Ｄ",J12&lt;60,"Ｆ")</f>
         <v>Ｂ</v>
       </c>
-      <c r="L12" t="str">
+      <c r="L12" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｐａｓｓ</v>
       </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
@@ -2991,18 +3023,21 @@
       <c r="I13" s="1">
         <v>52</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="K13" t="str" cm="1">
+      <c r="K13" s="6" t="str" cm="1">
         <f t="array" ref="K13">_xlfn.IFS(J13&gt;=90,"Ａ",J13&gt;=80,"Ｂ",J13&gt;=70,"Ｃ",J13&gt;=60,"Ｄ",J13&lt;60,"Ｆ")</f>
         <v>Ｆ</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｆａｉｌ</v>
       </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
@@ -3033,18 +3068,21 @@
       <c r="I14" s="1">
         <v>69</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <f t="shared" si="3"/>
         <v>66.900000000000006</v>
       </c>
-      <c r="K14" t="str" cm="1">
+      <c r="K14" s="6" t="str" cm="1">
         <f t="array" ref="K14">_xlfn.IFS(J14&gt;=90,"Ａ",J14&gt;=80,"Ｂ",J14&gt;=70,"Ｃ",J14&gt;=60,"Ｄ",J14&lt;60,"Ｆ")</f>
         <v>Ｄ</v>
       </c>
-      <c r="L14" t="str">
+      <c r="L14" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｐａｓｓ</v>
       </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
@@ -3075,18 +3113,21 @@
       <c r="I15" s="1">
         <v>54</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <f t="shared" si="3"/>
         <v>55.6</v>
       </c>
-      <c r="K15" t="str" cm="1">
+      <c r="K15" s="6" t="str" cm="1">
         <f t="array" ref="K15">_xlfn.IFS(J15&gt;=90,"Ａ",J15&gt;=80,"Ｂ",J15&gt;=70,"Ｃ",J15&gt;=60,"Ｄ",J15&lt;60,"Ｆ")</f>
         <v>Ｆ</v>
       </c>
-      <c r="L15" t="str">
+      <c r="L15" s="6" t="str">
         <f t="shared" si="2"/>
         <v>ｆａｉｌ</v>
       </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15">
       <c r="C16" s="4" t="s">
@@ -3105,25 +3146,41 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
-      <c r="C17">
+    <row r="17" spans="3:11">
+      <c r="C17" s="6">
         <f>MAX(C2:C15)</f>
         <v>98</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <f>LARGE(D2:D15,2)</f>
         <v>92</v>
       </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1">
         <f>COUNTIF(H2:H15,"&lt;80")</f>
         <v>8</v>
       </c>
-      <c r="J17">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6">
         <f>AVERAGE(J2:J15)</f>
         <v>76.871428571428581</v>
       </c>
+      <c r="K17" s="6"/>
     </row>
-    <row r="24" spans="3:10">
+    <row r="18" spans="3:11">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="24" spans="3:11">
       <c r="J24" s="4" t="s">
         <v>29</v>
       </c>
